--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_19-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_19-01.xlsx
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
@@ -2329,13 +2332,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2355,13 +2358,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>30.09</v>
+        <v>50</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2387,7 +2390,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>23</v>
+        <v>30.09</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2407,13 +2410,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2433,17 +2436,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2459,17 +2462,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2485,17 +2488,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2503,7 +2506,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2511,17 +2514,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2529,7 +2532,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2537,17 +2540,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>63</v>
+        <v>22.5</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2563,13 +2566,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2589,17 +2592,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2615,17 +2618,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2633,7 +2636,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2641,17 +2644,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2659,7 +2662,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2667,17 +2670,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2693,13 +2696,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2711,7 +2714,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2719,13 +2722,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2745,13 +2748,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2763,7 +2766,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2771,51 +2774,77 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="K76" s="10">
-        <v>4386.6899999999996</v>
-      </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="11">
+    <row r="76" ht="24.75" customHeight="1">
+      <c r="A76" s="6">
+        <v>73</v>
+      </c>
+      <c t="s" r="B76" s="7">
         <v>108</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c t="s" r="F77" s="12">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c t="s" r="H76" s="8">
+        <v>9</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="9">
+        <v>20</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c t="s" r="N76" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" ht="26.25" customHeight="1">
+      <c r="K77" s="10">
+        <v>4431.6899999999996</v>
+      </c>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="11">
         <v>109</v>
       </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
-      <c t="s" r="I77" s="14">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c t="s" r="F78" s="12">
         <v>110</v>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13"/>
+      <c t="s" r="I78" s="14">
+        <v>111</v>
+      </c>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="230">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3039,10 +3068,13 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="I77:N77"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="I78:N78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
